--- a/DATOS/PONDERACIONES/PESOS_ALQUILER_EPF/pesos_alquiler_estatal.xlsx
+++ b/DATOS/PONDERACIONES/PESOS_ALQUILER_EPF/pesos_alquiler_estatal.xlsx
@@ -379,7 +379,7 @@
         <v>2017</v>
       </c>
       <c r="B2">
-        <v>0.25</v>
+        <v>0.22658</v>
       </c>
       <c r="C2">
         <v>2018</v>
@@ -390,7 +390,7 @@
         <v>2018</v>
       </c>
       <c r="B3">
-        <v>0.247</v>
+        <v>0.22558</v>
       </c>
       <c r="C3">
         <v>2019</v>
@@ -401,7 +401,7 @@
         <v>2019</v>
       </c>
       <c r="B4">
-        <v>0.26</v>
+        <v>0.23725</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -412,7 +412,7 @@
         <v>2020</v>
       </c>
       <c r="B5">
-        <v>0.31</v>
+        <v>0.28676</v>
       </c>
       <c r="C5">
         <v>2021</v>
@@ -423,7 +423,7 @@
         <v>2021</v>
       </c>
       <c r="B6">
-        <v>0.301</v>
+        <v>0.2802</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -434,7 +434,7 @@
         <v>2022</v>
       </c>
       <c r="B7">
-        <v>0.28</v>
+        <v>0.2598</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -445,7 +445,7 @@
         <v>2023</v>
       </c>
       <c r="B8">
-        <v>0.286</v>
+        <v>0.26462</v>
       </c>
       <c r="C8">
         <v>2024</v>
@@ -456,7 +456,7 @@
         <v>2024</v>
       </c>
       <c r="B9">
-        <v>0.268</v>
+        <v>0.24207</v>
       </c>
       <c r="C9">
         <v>2025</v>

--- a/DATOS/PONDERACIONES/PESOS_ALQUILER_EPF/pesos_alquiler_estatal.xlsx
+++ b/DATOS/PONDERACIONES/PESOS_ALQUILER_EPF/pesos_alquiler_estatal.xlsx
@@ -379,7 +379,7 @@
         <v>2017</v>
       </c>
       <c r="B2">
-        <v>0.22658</v>
+        <v>0.23382</v>
       </c>
       <c r="C2">
         <v>2018</v>
@@ -390,7 +390,7 @@
         <v>2018</v>
       </c>
       <c r="B3">
-        <v>0.22558</v>
+        <v>0.23278</v>
       </c>
       <c r="C3">
         <v>2019</v>
@@ -401,7 +401,7 @@
         <v>2019</v>
       </c>
       <c r="B4">
-        <v>0.23725</v>
+        <v>0.24475</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -412,7 +412,7 @@
         <v>2020</v>
       </c>
       <c r="B5">
-        <v>0.28676</v>
+        <v>0.29418</v>
       </c>
       <c r="C5">
         <v>2021</v>
@@ -423,7 +423,7 @@
         <v>2021</v>
       </c>
       <c r="B6">
-        <v>0.2802</v>
+        <v>0.28979</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -434,7 +434,7 @@
         <v>2022</v>
       </c>
       <c r="B7">
-        <v>0.2598</v>
+        <v>0.27257</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -445,7 +445,7 @@
         <v>2023</v>
       </c>
       <c r="B8">
-        <v>0.26462</v>
+        <v>0.27318</v>
       </c>
       <c r="C8">
         <v>2024</v>
@@ -456,7 +456,7 @@
         <v>2024</v>
       </c>
       <c r="B9">
-        <v>0.24207</v>
+        <v>0.24793</v>
       </c>
       <c r="C9">
         <v>2025</v>
